--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/GEORGIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/GEORGIA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1390"/>
+  <dimension ref="A1:D1384"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -771,14 +771,14 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
       <c r="D30">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="31">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C33">
@@ -836,7 +836,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C35">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C43">
@@ -979,7 +979,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C46">
@@ -1304,7 +1304,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>Marqués de Comillas</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C71">
@@ -1317,7 +1317,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C72">
@@ -1343,7 +1343,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Montecristo de Guerero</t>
+          <t>Montecristo De Guerero</t>
         </is>
       </c>
       <c r="C74">
@@ -1382,7 +1382,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C77">
@@ -1460,7 +1460,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C83">
@@ -1473,7 +1473,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C84">
@@ -1881,7 +1881,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C115">
@@ -1985,7 +1985,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C123">
@@ -2198,7 +2198,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C139">
@@ -2346,7 +2346,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2403,7 +2403,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C154">
@@ -2527,7 +2527,7 @@
         <v>14</v>
       </c>
       <c r="D163">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="164">
@@ -2603,7 +2603,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C169">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C182">
@@ -2798,7 +2798,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C184">
@@ -2876,7 +2876,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C190">
@@ -2889,7 +2889,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C191">
@@ -2902,7 +2902,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C192">
@@ -3006,12 +3006,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C200">
@@ -3050,7 +3050,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C203">
@@ -3063,7 +3063,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C204">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C211">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C216">
@@ -3310,7 +3310,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C223">
@@ -3388,7 +3388,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C229">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C230">
@@ -3583,7 +3583,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C244">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C253">
@@ -3713,7 +3713,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C254">
@@ -3752,14 +3752,14 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C257">
         <v>14</v>
       </c>
       <c r="D257">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="258">
@@ -3869,7 +3869,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C266">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C273">
@@ -4025,7 +4025,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C278">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C279">
@@ -4051,7 +4051,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C280">
@@ -4064,7 +4064,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C281">
@@ -4194,7 +4194,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -4238,7 +4238,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C294">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C295">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C302">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C306">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C317">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C319">
@@ -4589,7 +4589,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C321">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C324">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C329">
@@ -4770,7 +4770,7 @@
         <v>1397</v>
       </c>
       <c r="D334">
-        <v>0.09135495684017787</v>
+        <v>0.09135495684017789</v>
       </c>
     </row>
     <row r="335">
@@ -4781,7 +4781,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C335">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C338">
@@ -4833,7 +4833,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C339">
@@ -4872,7 +4872,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C342">
@@ -4885,7 +4885,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C343">
@@ -4911,7 +4911,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C345">
@@ -4924,7 +4924,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C346">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C350">
@@ -4989,7 +4989,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C351">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C352">
@@ -5054,7 +5054,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C356">
@@ -5067,7 +5067,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C357">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C361">
@@ -5132,7 +5132,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C362">
@@ -5210,7 +5210,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C368">
@@ -5223,7 +5223,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C369">
@@ -5249,14 +5249,14 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C371">
         <v>15</v>
       </c>
       <c r="D371">
-        <v>0.0009809050483913157</v>
+        <v>0.0009809050483913155</v>
       </c>
     </row>
     <row r="372">
@@ -5275,7 +5275,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C373">
@@ -5360,7 +5360,7 @@
         <v>15</v>
       </c>
       <c r="D379">
-        <v>0.0009809050483913157</v>
+        <v>0.0009809050483913155</v>
       </c>
     </row>
     <row r="380">
@@ -5470,7 +5470,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C388">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C390">
@@ -5522,7 +5522,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C392">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Tixtla de Guerero</t>
+          <t>Tixtla De Guerero</t>
         </is>
       </c>
       <c r="C394">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C398">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C399">
@@ -5774,7 +5774,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C411">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C417">
@@ -5924,13 +5924,13 @@
         <v>14</v>
       </c>
       <c r="D422">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C423">
@@ -6008,7 +6008,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C429">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C435">
@@ -6151,7 +6151,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Mineral de la Reforma</t>
+          <t>Mineral De La Reforma</t>
         </is>
       </c>
       <c r="C440">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C441">
@@ -6177,7 +6177,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C442">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C444">
@@ -6229,7 +6229,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C446">
@@ -6242,7 +6242,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C447">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C448">
@@ -6294,7 +6294,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C451">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerero</t>
+          <t>Santiago Tulantepec De Lugo Guerero</t>
         </is>
       </c>
       <c r="C457">
@@ -6424,14 +6424,14 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C461">
         <v>14</v>
       </c>
       <c r="D461">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="462">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerero</t>
+          <t>Tepehuacán De Guerero</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C464">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C466">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C473">
@@ -6593,7 +6593,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C474">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C477">
@@ -6702,7 +6702,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C482">
@@ -6715,7 +6715,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C483">
@@ -6767,7 +6767,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C487">
@@ -6793,7 +6793,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C489">
@@ -6845,7 +6845,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C493">
@@ -6962,7 +6962,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C502">
@@ -7001,7 +7001,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C505">
@@ -7014,7 +7014,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C506">
@@ -7027,7 +7027,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C507">
@@ -7053,7 +7053,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C509">
@@ -7118,7 +7118,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C514">
@@ -7144,7 +7144,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C516">
@@ -7209,7 +7209,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C521">
@@ -7222,7 +7222,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C522">
@@ -7261,7 +7261,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C525">
@@ -7300,7 +7300,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C528">
@@ -7313,7 +7313,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C529">
@@ -7365,7 +7365,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C533">
@@ -7378,7 +7378,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C534">
@@ -7411,13 +7411,13 @@
         <v>14</v>
       </c>
       <c r="D536">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C537">
@@ -7430,7 +7430,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C538">
@@ -7508,7 +7508,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C544">
@@ -7521,7 +7521,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C545">
@@ -7534,7 +7534,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C546">
@@ -7573,7 +7573,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C549">
@@ -7586,7 +7586,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C550">
@@ -7625,7 +7625,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C553">
@@ -7638,7 +7638,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C554">
@@ -7942,7 +7942,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C577">
@@ -7968,7 +7968,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C579">
@@ -8709,7 +8709,7 @@
     <row r="636">
       <c r="B636" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C636">
@@ -8755,7 +8755,7 @@
         <v>14</v>
       </c>
       <c r="D639">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="640">
@@ -8898,7 +8898,7 @@
         <v>14</v>
       </c>
       <c r="D650">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="651">
@@ -9000,7 +9000,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C658">
@@ -9091,7 +9091,7 @@
     <row r="665">
       <c r="B665" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C665">
@@ -9143,7 +9143,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C669">
@@ -9195,7 +9195,7 @@
     <row r="673">
       <c r="B673" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C673">
@@ -9221,7 +9221,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C675">
@@ -9369,7 +9369,7 @@
     <row r="686">
       <c r="B686" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C686">
@@ -9382,7 +9382,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C687">
@@ -9408,7 +9408,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C689">
@@ -9486,7 +9486,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C695">
@@ -9519,7 +9519,7 @@
         <v>15</v>
       </c>
       <c r="D697">
-        <v>0.0009809050483913157</v>
+        <v>0.0009809050483913155</v>
       </c>
     </row>
     <row r="698">
@@ -9647,7 +9647,7 @@
     <row r="707">
       <c r="B707" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C707">
@@ -9660,7 +9660,7 @@
     <row r="708">
       <c r="B708" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C708">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C712">
@@ -9756,14 +9756,14 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C715">
         <v>14</v>
       </c>
       <c r="D715">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="716">
@@ -9821,7 +9821,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C720">
@@ -9847,7 +9847,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C722">
@@ -9873,7 +9873,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C724">
@@ -9899,7 +9899,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>Guelatao de Juárez</t>
+          <t>Guelatao De Juárez</t>
         </is>
       </c>
       <c r="C726">
@@ -9912,7 +9912,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C727">
@@ -9925,7 +9925,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C728">
@@ -9938,7 +9938,7 @@
     <row r="729">
       <c r="B729" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C729">
@@ -9951,7 +9951,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C730">
@@ -9964,7 +9964,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C731">
@@ -9977,7 +9977,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C732">
@@ -10068,7 +10068,7 @@
     <row r="739">
       <c r="B739" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C739">
@@ -10094,7 +10094,7 @@
     <row r="741">
       <c r="B741" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C741">
@@ -10120,7 +10120,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C743">
@@ -10133,7 +10133,7 @@
     <row r="744">
       <c r="B744" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C744">
@@ -10146,7 +10146,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C745">
@@ -10172,7 +10172,7 @@
     <row r="747">
       <c r="B747" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C747">
@@ -10185,7 +10185,7 @@
     <row r="748">
       <c r="B748" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C748">
@@ -10276,7 +10276,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>San Antonino el Alto</t>
+          <t>San Antonino El Alto</t>
         </is>
       </c>
       <c r="C755">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C763">
@@ -10523,7 +10523,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C774">
@@ -10549,7 +10549,7 @@
     <row r="776">
       <c r="B776" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C776">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C781">
@@ -10874,7 +10874,7 @@
     <row r="801">
       <c r="B801" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C801">
@@ -11004,7 +11004,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C811">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C824">
@@ -11186,7 +11186,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C825">
@@ -11232,7 +11232,7 @@
         <v>15</v>
       </c>
       <c r="D828">
-        <v>0.0009809050483913157</v>
+        <v>0.0009809050483913155</v>
       </c>
     </row>
     <row r="829">
@@ -11381,7 +11381,7 @@
     <row r="840">
       <c r="B840" t="inlineStr">
         <is>
-          <t>Santa Inés de Zaragoza</t>
+          <t>Santa Inés De Zaragoza</t>
         </is>
       </c>
       <c r="C840">
@@ -11394,7 +11394,7 @@
     <row r="841">
       <c r="B841" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C841">
@@ -11511,7 +11511,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C850">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C885">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C897">
@@ -12135,7 +12135,7 @@
     <row r="898">
       <c r="B898" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C898">
@@ -12148,7 +12148,7 @@
     <row r="899">
       <c r="B899" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C899">
@@ -12161,7 +12161,7 @@
     <row r="900">
       <c r="B900" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C900">
@@ -12174,7 +12174,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C901">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C902">
@@ -12200,7 +12200,7 @@
     <row r="903">
       <c r="B903" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C903">
@@ -12213,7 +12213,7 @@
     <row r="904">
       <c r="B904" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C904">
@@ -12226,7 +12226,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C905">
@@ -12239,7 +12239,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Yutanduchi de Guerero</t>
+          <t>Yutanduchi De Guerero</t>
         </is>
       </c>
       <c r="C906">
@@ -12252,7 +12252,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C907">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C909">
@@ -12517,7 +12517,7 @@
     <row r="927">
       <c r="B927" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C927">
@@ -12699,7 +12699,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C941">
@@ -12816,7 +12816,7 @@
     <row r="950">
       <c r="B950" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C950">
@@ -12829,7 +12829,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C951">
@@ -12842,7 +12842,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C952">
@@ -12881,7 +12881,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C955">
@@ -12998,7 +12998,7 @@
     <row r="964">
       <c r="B964" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C964">
@@ -13063,7 +13063,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C969">
@@ -13219,7 +13219,7 @@
     <row r="981">
       <c r="B981" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C981">
@@ -13232,7 +13232,7 @@
     <row r="982">
       <c r="B982" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C982">
@@ -13349,7 +13349,7 @@
     <row r="991">
       <c r="B991" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C991">
@@ -13362,7 +13362,7 @@
     <row r="992">
       <c r="B992" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C992">
@@ -13440,7 +13440,7 @@
     <row r="998">
       <c r="B998" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C998">
@@ -13570,7 +13570,7 @@
     <row r="1008">
       <c r="B1008" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1008">
@@ -13783,7 +13783,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1024">
@@ -13809,7 +13809,7 @@
     <row r="1026">
       <c r="B1026" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1026">
@@ -13848,7 +13848,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1029">
@@ -13861,7 +13861,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1030">
@@ -13900,7 +13900,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1033">
@@ -13939,7 +13939,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1036">
@@ -14079,7 +14079,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C1046">
@@ -14092,7 +14092,7 @@
     <row r="1047">
       <c r="B1047" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1047">
@@ -14170,7 +14170,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1053">
@@ -14274,7 +14274,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1061">
@@ -14352,7 +14352,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1067">
@@ -14411,13 +14411,13 @@
         <v>14</v>
       </c>
       <c r="D1071">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1072">
@@ -14443,7 +14443,7 @@
     <row r="1074">
       <c r="B1074" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1074">
@@ -14508,7 +14508,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1079">
@@ -14560,7 +14560,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1083">
@@ -14573,7 +14573,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1084">
@@ -14586,7 +14586,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1085">
@@ -14599,7 +14599,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1086">
@@ -14612,7 +14612,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1087">
@@ -14625,7 +14625,7 @@
     <row r="1088">
       <c r="B1088" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1088">
@@ -14658,7 +14658,7 @@
         <v>14</v>
       </c>
       <c r="D1090">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1091">
@@ -14986,7 +14986,7 @@
     <row r="1115">
       <c r="B1115" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1115">
@@ -15160,7 +15160,7 @@
     <row r="1128">
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1128">
@@ -15568,7 +15568,7 @@
     <row r="1159">
       <c r="B1159" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1159">
@@ -15742,7 +15742,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C1172">
@@ -15755,14 +15755,14 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1173">
         <v>14</v>
       </c>
       <c r="D1173">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1174">
@@ -15781,7 +15781,7 @@
     <row r="1175">
       <c r="B1175" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1175">
@@ -15807,7 +15807,7 @@
     <row r="1177">
       <c r="B1177" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1177">
@@ -15820,7 +15820,7 @@
     <row r="1178">
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Sanctórum de Lázaro Cárdenas</t>
+          <t>Sanctórum De Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C1178">
@@ -15996,7 +15996,7 @@
         <v>14</v>
       </c>
       <c r="D1191">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1192">
@@ -16072,7 +16072,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1197">
@@ -16124,7 +16124,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1201">
@@ -16254,7 +16254,7 @@
     <row r="1211">
       <c r="B1211" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1211">
@@ -16280,7 +16280,7 @@
     <row r="1213">
       <c r="B1213" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1213">
@@ -16306,7 +16306,7 @@
     <row r="1215">
       <c r="B1215" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1215">
@@ -16417,7 +16417,7 @@
         <v>14</v>
       </c>
       <c r="D1223">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1224">
@@ -16475,7 +16475,7 @@
     <row r="1228">
       <c r="B1228" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1228">
@@ -16488,7 +16488,7 @@
     <row r="1229">
       <c r="B1229" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1229">
@@ -16670,7 +16670,7 @@
     <row r="1243">
       <c r="B1243" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1243">
@@ -16683,7 +16683,7 @@
     <row r="1244">
       <c r="B1244" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C1244">
@@ -16696,7 +16696,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1245">
@@ -16735,7 +16735,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1248">
@@ -16748,7 +16748,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1249">
@@ -16761,7 +16761,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1250">
@@ -16774,7 +16774,7 @@
     <row r="1251">
       <c r="B1251" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1251">
@@ -16872,7 +16872,7 @@
         <v>14</v>
       </c>
       <c r="D1258">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1259">
@@ -16891,7 +16891,7 @@
     <row r="1260">
       <c r="B1260" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1260">
@@ -16969,7 +16969,7 @@
     <row r="1266">
       <c r="B1266" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1266">
@@ -17028,7 +17028,7 @@
         <v>15</v>
       </c>
       <c r="D1270">
-        <v>0.0009809050483913157</v>
+        <v>0.0009809050483913155</v>
       </c>
     </row>
     <row r="1271">
@@ -17125,7 +17125,7 @@
     <row r="1278">
       <c r="B1278" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1278">
@@ -17164,7 +17164,7 @@
     <row r="1281">
       <c r="B1281" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1281">
@@ -17177,7 +17177,7 @@
     <row r="1282">
       <c r="B1282" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1282">
@@ -17229,14 +17229,14 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1286">
         <v>14</v>
       </c>
       <c r="D1286">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1287">
@@ -17333,7 +17333,7 @@
     <row r="1294">
       <c r="B1294" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1294">
@@ -17372,7 +17372,7 @@
     <row r="1297">
       <c r="B1297" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1297">
@@ -17723,7 +17723,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1324">
@@ -17827,7 +17827,7 @@
     <row r="1332">
       <c r="B1332" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1332">
@@ -18019,7 +18019,7 @@
     <row r="1346">
       <c r="B1346" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1346">
@@ -18032,7 +18032,7 @@
     <row r="1347">
       <c r="B1347" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1347">
@@ -18104,7 +18104,7 @@
         <v>14</v>
       </c>
       <c r="D1352">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1353">
@@ -18240,7 +18240,7 @@
     <row r="1363">
       <c r="B1363" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1363">
@@ -18253,7 +18253,7 @@
     <row r="1364">
       <c r="B1364" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1364">
@@ -18357,7 +18357,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1372">
@@ -18370,7 +18370,7 @@
     <row r="1373">
       <c r="B1373" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1373">
@@ -18422,7 +18422,7 @@
     <row r="1377">
       <c r="B1377" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1377">
@@ -18494,7 +18494,7 @@
         <v>14</v>
       </c>
       <c r="D1382">
-        <v>0.0009155113784985613</v>
+        <v>0.0009155113784985612</v>
       </c>
     </row>
     <row r="1383">
@@ -18521,41 +18521,6 @@
       </c>
       <c r="D1384">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1386">
-      <c r="B1386" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1387">
-      <c r="B1387" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1388">
-      <c r="B1388" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1389">
-      <c r="B1389" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1390">
-      <c r="B1390" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
